--- a/data/2024/recordings2024.xlsx
+++ b/data/2024/recordings2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6184F7B9-ECD0-4406-A5D5-BFE62C006595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="61"/>
+    <workbookView xWindow="780" yWindow="765" windowWidth="25755" windowHeight="15435" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Session</t>
   </si>
@@ -36,14 +37,32 @@
     <t>Recording</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Session 2</t>
+  </si>
+  <si>
+    <t>Session 3</t>
+  </si>
+  <si>
+    <t>Session 4</t>
+  </si>
+  <si>
+    <t>Session 5</t>
+  </si>
+  <si>
+    <t>Session 6</t>
+  </si>
+  <si>
+    <t>Session 7</t>
+  </si>
+  <si>
+    <t>Short topics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -53,6 +72,11 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -80,13 +104,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -97,8 +121,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,16 +508,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -518,34 +542,73 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="4"/>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="4"/>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="4"/>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" s="4"/>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" s="4"/>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="4"/>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
@@ -555,6 +618,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/data/2024/recordings2024.xlsx
+++ b/data/2024/recordings2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6184F7B9-ECD0-4406-A5D5-BFE62C006595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61A7C63-9129-474D-A0DA-E0EDCF6DDE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="765" windowWidth="25755" windowHeight="15435" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Session</t>
   </si>
@@ -56,6 +56,33 @@
   </si>
   <si>
     <t>Short topics</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8c5N_jRsC9k</t>
+  </si>
+  <si>
+    <t>Session 8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bj9HOQRO-NM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ghdTG5RBhgI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tntPz6s4xH4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Dlr6H-w2yGI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/qKxNI_Mwfcc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0Tk4WIKu3PI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/5vlTfHA43GI</t>
   </si>
 </sst>
 </file>
@@ -514,7 +541,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -542,8 +569,11 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -551,9 +581,11 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -569,49 +601,67 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
@@ -619,8 +669,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6463030E-2A7F-4585-A184-BAB6A37032FF}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/2024/recordings2024.xlsx
+++ b/data/2024/recordings2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\EFSPI\webpages\20_workshop\workshop\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61A7C63-9129-474D-A0DA-E0EDCF6DDE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A44352-F322-4457-9453-C71B68296AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="45" windowWidth="25755" windowHeight="15435" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Session</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>https://youtu.be/5vlTfHA43GI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-sEB7t_TED8</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="115.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -592,9 +595,11 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
